--- a/src/data1/comparisonReport.xlsx
+++ b/src/data1/comparisonReport.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
